--- a/0. Source Layer/components/reports/T.C._Ziraat_Bank,_Sofia_Branch(Questura).xlsx
+++ b/0. Source Layer/components/reports/T.C._Ziraat_Bank,_Sofia_Branch(Questura).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,50 +476,40 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bank_name</t>
+          <t>questura_country</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bank_country</t>
+          <t>bankruptcy</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>questura_country</t>
+          <t>inscred</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>bankruptcy</t>
+          <t>fraudis</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>inscred</t>
+          <t>investegation</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>fraudis</t>
+          <t>accused</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>investegation</t>
+          <t>condamned</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>accused</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>condamned</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>civ_pass</t>
         </is>
@@ -527,21 +517,21 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6a05f98f-100f-42d9-86b7-a0d589eccbb5</t>
+          <t>7f2d17d3-13fd-4f18-a678-5805ab5fa44d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Verena Minerals Corp.</t>
+          <t>Haemacure Corp.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10/10/1981</t>
+          <t>12/8/1993</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -550,140 +540,120 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>office</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>266-884-5949</t>
+          <t>757-765-4803</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sales@verenamineralscorp.org</t>
+          <t>info@haemacurecorp.org</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>T.C. Ziraat Bank, Sofia Branch</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Bulgaria</t>
         </is>
       </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>$1,848,278,152.00</t>
         </is>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>$64,956,916,926.00</t>
-        </is>
+      <c r="N2" t="b">
+        <v>0</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2d3d1c8b-3cc1-4850-a919-ba4d6cb09075</t>
+          <t>27ce7b74-7d6a-4d13-b91e-814f61dd179d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tele Sudeste Celular Participacoes S.A.</t>
+          <t>ABB Ltd.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3/4/1976</t>
+          <t>8/20/1984</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>prototype</t>
+          <t>office</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>978-489-1684</t>
+          <t>688-160-3651</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>contact@telesudestecelularparticipacoessa.org</t>
+          <t>marketing@abbltd.org</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>T.C. Ziraat Bank, Sofia Branch</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>Bulgaria</t>
         </is>
       </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>$67,513,240,406.00</t>
         </is>
       </c>
       <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>$32,938,160,518.00</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
       </c>
       <c r="O3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" t="b">
         <v>1</v>
       </c>
     </row>
